--- a/MainTop/31.07.2025 Таня Озон/print_print_sorted.xlsx
+++ b/MainTop/31.07.2025 Таня Озон/print_print_sorted.xlsx
@@ -5,22 +5,33 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Max\Documents\GitHub\Ozon_upload\MainTop\31.07.2025 Таня Озон\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maxim\Documents\GitHub\Ozon_upload\MainTop\31.07.2025 Таня Озон\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{976A5794-2071-4B82-8CBB-54BDE20BBC8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1B4A83F-ACA1-4926-8583-75949DEFF582}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="458" uniqueCount="242">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="345" uniqueCount="129">
   <si>
     <t>Артикул</t>
   </si>
@@ -61,15 +72,6 @@
     <t>Юг</t>
   </si>
   <si>
-    <t>Num_Copies</t>
-  </si>
-  <si>
-    <t>осталось</t>
-  </si>
-  <si>
-    <t>Место</t>
-  </si>
-  <si>
     <t>Тип упорядочить</t>
   </si>
   <si>
@@ -79,9 +81,6 @@
     <t>Термонаклейка Цветы Тюльпаны 5шт белые</t>
   </si>
   <si>
-    <t>у3</t>
-  </si>
-  <si>
     <t>1_а4</t>
   </si>
   <si>
@@ -91,661 +90,334 @@
     <t>Термонаклейка Кит в Цветах</t>
   </si>
   <si>
-    <t>т42</t>
-  </si>
-  <si>
     <t>Термонаклейка Цветы Пионы надпись</t>
   </si>
   <si>
-    <t>у1</t>
-  </si>
-  <si>
     <t>Термонаклейка Цветы Колибри 2шт</t>
   </si>
   <si>
-    <t>у6</t>
-  </si>
-  <si>
     <t>Термонаклейка набор Щенячий Патруль Paw Patrol</t>
   </si>
   <si>
-    <t>е3</t>
-  </si>
-  <si>
     <t>Термонаклейка Чёрная кошка с узорами на фоне луны</t>
   </si>
   <si>
-    <t>в3</t>
-  </si>
-  <si>
     <t>Термонаклейка Цветы Синии Амариллис</t>
   </si>
   <si>
-    <t>у12</t>
-  </si>
-  <si>
     <t>Термонаклейки Nike Найк набор</t>
   </si>
   <si>
-    <t>у22</t>
-  </si>
-  <si>
     <t>Термонаклейка Белая Лошадь Цветы</t>
   </si>
   <si>
-    <t>т40</t>
-  </si>
-  <si>
     <t>Термонаклейка Девочка и Лиса</t>
   </si>
   <si>
-    <t>т22</t>
-  </si>
-  <si>
     <t>Термонаклейка Цветы Магнолия 3шт розовые</t>
   </si>
   <si>
-    <t>у8</t>
-  </si>
-  <si>
     <t>Термонаклейка Мэрилин Монро Медуза Горгона</t>
   </si>
   <si>
-    <t>у49</t>
-  </si>
-  <si>
     <t>Термонаклейка Ловец снов акварель</t>
   </si>
   <si>
-    <t>в7</t>
-  </si>
-  <si>
     <t>Термонаклейка Чёрный волк красный луна</t>
   </si>
   <si>
-    <t>в25</t>
-  </si>
-  <si>
     <t>Термонаклейка набор Черепашки ниндзя turtles TMNT</t>
   </si>
   <si>
-    <t>е1</t>
-  </si>
-  <si>
     <t>Термонаклейка Белый Кот в цветах</t>
   </si>
   <si>
-    <t>т39</t>
-  </si>
-  <si>
     <t>Термонаклейка Маленький принц на синем ките</t>
   </si>
   <si>
-    <t>в23</t>
-  </si>
-  <si>
     <t>Термонаклейка Цветы Пионы розовый Peonies</t>
   </si>
   <si>
-    <t>у17</t>
-  </si>
-  <si>
     <t>Термонаклейка Девушка и 2 ласточки</t>
   </si>
   <si>
-    <t>т28</t>
-  </si>
-  <si>
     <t>Термонаклейка Перья Яркие Wild Spirit</t>
   </si>
   <si>
-    <t>у26</t>
-  </si>
-  <si>
     <t>Термонаклейка Бабочка зеленная листья</t>
   </si>
   <si>
-    <t>т30</t>
-  </si>
-  <si>
     <t>Термонаклейка Инь Янь Леопарды</t>
   </si>
   <si>
-    <t>т15</t>
-  </si>
-  <si>
     <t>Термонаклейка Яхта у белых домиков море</t>
   </si>
   <si>
-    <t>в38</t>
-  </si>
-  <si>
     <t>Термонаклейка Черный Кот Силует астрономия</t>
   </si>
   <si>
-    <t>т12</t>
-  </si>
-  <si>
     <t>Термонаклейка Морская Ракушка Силует</t>
   </si>
   <si>
-    <t>т20</t>
-  </si>
-  <si>
     <t>Термонаклейка Мэрилин Монро Поп арт жвачка</t>
   </si>
   <si>
-    <t>у13</t>
-  </si>
-  <si>
     <t>Термонаклейка Пантера силует внутри цветы</t>
   </si>
   <si>
-    <t>у27</t>
-  </si>
-  <si>
     <t>Термонаклейка Морская Черепаха Море силует</t>
   </si>
   <si>
-    <t>у41</t>
-  </si>
-  <si>
     <t>Термонаклейка набор Том и Джерри Tom and Jerry</t>
   </si>
   <si>
-    <t>е2</t>
-  </si>
-  <si>
     <t>Термонаклейка Девушка с колибри роза кольцо</t>
   </si>
   <si>
-    <t>у25</t>
-  </si>
-  <si>
     <t>Термонаклейка Кассета цветы Vintage Soul</t>
   </si>
   <si>
-    <t>т49</t>
-  </si>
-  <si>
     <t>Термонаклейка Крылья красочные маслом</t>
   </si>
   <si>
-    <t>у34</t>
-  </si>
-  <si>
     <t>Термонаклейка Сердце Бабочки летят</t>
   </si>
   <si>
-    <t>т1</t>
-  </si>
-  <si>
     <t>Термонаклейка Цветы Магнолия белые Botanical</t>
   </si>
   <si>
-    <t>у20</t>
-  </si>
-  <si>
     <t>Термонаклейка Девушка Силует Акварель Лес</t>
   </si>
   <si>
-    <t>т31</t>
-  </si>
-  <si>
     <t>Термонаклейка Девушка на закате держат руки море</t>
   </si>
   <si>
-    <t>т13</t>
-  </si>
-  <si>
     <t>Термонаклейка Лес Гитара Закат</t>
   </si>
   <si>
-    <t>у44</t>
-  </si>
-  <si>
     <t>Термонаклейка Лошадь в золотых и мраморных тонах</t>
   </si>
   <si>
-    <t>в12</t>
-  </si>
-  <si>
     <t>Термонаклейка Бабочки 4шт небо внутри</t>
   </si>
   <si>
-    <t>у38</t>
-  </si>
-  <si>
     <t>Термонаклейка Чёрный кот Catzilla Годзилла луч</t>
   </si>
   <si>
-    <t>в89</t>
-  </si>
-  <si>
     <t>Термонаклейка Яркий аниме белый дракон с огнём</t>
   </si>
   <si>
-    <t>в68</t>
-  </si>
-  <si>
     <t>Термонаклейка Аист оранжевый круг</t>
   </si>
   <si>
-    <t>у5</t>
-  </si>
-  <si>
     <t>Термонаклейка Цветы Розовые Spring Blossoms</t>
   </si>
   <si>
-    <t>у24</t>
-  </si>
-  <si>
     <t>Термонаклейка Девушка Силует Закат</t>
   </si>
   <si>
-    <t>т36</t>
-  </si>
-  <si>
     <t>Термонаклейка Сердце Букет Цветы</t>
   </si>
   <si>
-    <t>т32</t>
-  </si>
-  <si>
     <t>Термонаклейка Цветы Ирисы акварелью Синий</t>
   </si>
   <si>
-    <t>у4</t>
-  </si>
-  <si>
     <t>Термонаклейка Берсерк воин в аниме стиле</t>
   </si>
   <si>
-    <t>в77</t>
-  </si>
-  <si>
     <t>Термонаклейка Микки Маус бабочки цверы силует</t>
   </si>
   <si>
-    <t>у39</t>
-  </si>
-  <si>
     <t>Термонаклейка набор Соник Sonic</t>
   </si>
   <si>
-    <t>е4</t>
-  </si>
-  <si>
     <t>Термонаклейка Девушка Волосы Бабочки</t>
   </si>
   <si>
-    <t>т35</t>
-  </si>
-  <si>
     <t>Термонаклейка Египетская кошка в золоте</t>
   </si>
   <si>
-    <t>в59</t>
-  </si>
-  <si>
     <t>Термонаклейка Кит моряк волны лодка</t>
   </si>
   <si>
-    <t>у36</t>
-  </si>
-  <si>
     <t>Термонаклейка Котенок розовый закат звезды</t>
   </si>
   <si>
-    <t>т47</t>
-  </si>
-  <si>
     <t>Термонаклейка Кратос God of War с цитатой</t>
   </si>
   <si>
-    <t>в67</t>
-  </si>
-  <si>
     <t>Термонаклейка Леопард пятна сердечки голова</t>
   </si>
   <si>
-    <t>у33</t>
-  </si>
-  <si>
     <t>Термонаклейка Мэрилин Монро фото буквы</t>
   </si>
   <si>
-    <t>т70</t>
-  </si>
-  <si>
     <t>Термонаклейка Одри Хепбёрн холст Vogue</t>
   </si>
   <si>
-    <t>у18</t>
-  </si>
-  <si>
     <t>Термонаклейка Попугаи 2шт зеленый и желтый</t>
   </si>
   <si>
-    <t>т5</t>
-  </si>
-  <si>
     <t>Термонаклейка Шредер и Кренг из Черепашек-ниндзя</t>
   </si>
   <si>
-    <t>в63</t>
-  </si>
-  <si>
     <t>Термонаклейка Девушка Природа Силует</t>
   </si>
   <si>
-    <t>т43</t>
-  </si>
-  <si>
     <t>Термонаклейка Кит в голубых и розовых оттенках</t>
   </si>
   <si>
-    <t>в21</t>
-  </si>
-  <si>
     <t>Термонаклейка Сердце Большая волна в Канагаве</t>
   </si>
   <si>
-    <t>у28</t>
-  </si>
-  <si>
     <t>Термонаклейка Аниме девочка белые волосы уши кошки</t>
   </si>
   <si>
-    <t>т54</t>
-  </si>
-  <si>
     <t>Термонаклейка Белый волк с цветами и узорами</t>
   </si>
   <si>
-    <t>в24</t>
-  </si>
-  <si>
     <t>Термонаклейка Лотос розовый золотистый</t>
   </si>
   <si>
-    <t>т19</t>
-  </si>
-  <si>
     <t>Термонаклейка Мопс Собачка попа секси</t>
   </si>
   <si>
-    <t>т71</t>
-  </si>
-  <si>
     <t>Термонаклейка Орхидея Цветы Розовые</t>
   </si>
   <si>
-    <t>т41</t>
-  </si>
-  <si>
     <t>Термонаклейка Солнце Луна Звезды Астрология</t>
   </si>
   <si>
-    <t>у48</t>
-  </si>
-  <si>
     <t>Термонаклейка Цветы Синий Акварель</t>
   </si>
   <si>
-    <t>т23</t>
-  </si>
-  <si>
     <t>Термонаклейка Самурай в маске воина</t>
   </si>
   <si>
-    <t>в80</t>
-  </si>
-  <si>
     <t>Термонаклейка Кит в золотом дизайне космос</t>
   </si>
   <si>
-    <t>в22</t>
-  </si>
-  <si>
     <t>Термонаклейка Сердце отпечаток пальца красный</t>
   </si>
   <si>
-    <t>т69</t>
-  </si>
-  <si>
     <t>Термонаклейка Фламинго Flamingo цветы</t>
   </si>
   <si>
-    <t>т55</t>
-  </si>
-  <si>
     <t>Термонаклейка Цветы Желтый Мак</t>
   </si>
   <si>
-    <t>у10</t>
-  </si>
-  <si>
     <t>Термонаклейка Девушка Венок Луна Акварель</t>
   </si>
   <si>
-    <t>т24</t>
-  </si>
-  <si>
     <t>Термонаклейка Девушка с галактической магией</t>
   </si>
   <si>
-    <t>в8</t>
-  </si>
-  <si>
     <t>Термонаклейка Девушка холст растут цветы</t>
   </si>
   <si>
-    <t>у43</t>
-  </si>
-  <si>
     <t>Термонаклейка Кит хвост из волн море океан</t>
   </si>
   <si>
-    <t>т60</t>
-  </si>
-  <si>
     <t>Термонаклейка Кот цветы внутри</t>
   </si>
   <si>
-    <t>т26</t>
-  </si>
-  <si>
     <t>Термонаклейка Мэрилин Монро буквы</t>
   </si>
   <si>
-    <t>т45</t>
-  </si>
-  <si>
     <t>Термонаклейка Пара леопардов в ночной листве</t>
   </si>
   <si>
-    <t>в13</t>
-  </si>
-  <si>
     <t>Термонаклейка Синий лев с золотыми акцентами</t>
   </si>
   <si>
-    <t>в15</t>
-  </si>
-  <si>
     <t>Термонаклейка Сова в цветах</t>
   </si>
   <si>
-    <t>в16</t>
-  </si>
-  <si>
     <t>Термонаклейка Девочка Ангел с хвостами</t>
   </si>
   <si>
-    <t>д9</t>
-  </si>
-  <si>
     <t>2_а5</t>
   </si>
   <si>
     <t>Термонаклейка Человек Паук Лого позади</t>
   </si>
   <si>
-    <t>б5</t>
-  </si>
-  <si>
     <t>Термонаклейка Улыбающийся лисенок в снегу</t>
   </si>
   <si>
-    <t>д19</t>
-  </si>
-  <si>
     <t>Термонаклейка Девочка в розовом платье</t>
   </si>
   <si>
-    <t>д7</t>
-  </si>
-  <si>
     <t>Термонаклейка Единороги голубой и розовый</t>
   </si>
   <si>
-    <t>б2</t>
-  </si>
-  <si>
     <t>Термонаклейка Дейзи и Минни Маус коктейль</t>
   </si>
   <si>
-    <t>б93</t>
-  </si>
-  <si>
     <t>Термонаклейка Радужный мишка с улыбкой</t>
   </si>
   <si>
-    <t>д17</t>
-  </si>
-  <si>
     <t>Термонаклейка львенок с милой улыбкой</t>
   </si>
   <si>
-    <t>д11</t>
-  </si>
-  <si>
     <t>Термонаклейка Минни Маус поправляет бант</t>
   </si>
   <si>
-    <t>б42</t>
-  </si>
-  <si>
     <t>Термонаклейка Спанч Боб и друзья</t>
   </si>
   <si>
-    <t>б11</t>
-  </si>
-  <si>
     <t>Термонаклейка Лило и Стич сидят</t>
   </si>
   <si>
-    <t>б9</t>
-  </si>
-  <si>
     <t>Термонаклейка Весёлый енот выглядывает</t>
   </si>
   <si>
-    <t>д4</t>
-  </si>
-  <si>
     <t>Термонаклейка Динозавр в очках играет на гитаре</t>
   </si>
   <si>
-    <t>б55</t>
-  </si>
-  <si>
     <t>Термонаклейка Дисней утка Дейзи и Минни пис</t>
   </si>
   <si>
-    <t>б27</t>
-  </si>
-  <si>
     <t>Термонаклейка Радужный котенок счастливый</t>
   </si>
   <si>
-    <t>д18</t>
-  </si>
-  <si>
     <t>Термонаклейка Покемоны Пикачу и Эш Кетчум</t>
   </si>
   <si>
-    <t>б45</t>
-  </si>
-  <si>
     <t>Термонаклейка Винни Пух и друзья на шаре</t>
   </si>
   <si>
-    <t>б44</t>
-  </si>
-  <si>
     <t>Термонаклейка Ёжики в кружках с сердечками</t>
   </si>
   <si>
-    <t>д22</t>
-  </si>
-  <si>
     <t>Термонаклейка Чёрный котенок в цветах</t>
   </si>
   <si>
-    <t>д3</t>
-  </si>
-  <si>
     <t>Термонаклейка арбуз с сердцем и надписью</t>
   </si>
   <si>
-    <t>д13</t>
-  </si>
-  <si>
     <t>Термонаклейка львенок выглядывает игриво</t>
   </si>
   <si>
-    <t>д12</t>
-  </si>
-  <si>
     <t>Термонаклейка Кошка розово-фиолетовая крупный план</t>
   </si>
   <si>
-    <t>в5</t>
-  </si>
-  <si>
     <t>6_а4_настройки_60</t>
   </si>
   <si>
     <t>Термонаклейка Мэрилин Монро геометрия</t>
   </si>
   <si>
-    <t>т67</t>
-  </si>
-  <si>
     <t>Термонаклейка Секс в большом городе подруги</t>
   </si>
   <si>
-    <t>т59</t>
-  </si>
-  <si>
     <t>Термонаклейка Губы Язык Краски Дизайн</t>
   </si>
   <si>
-    <t>т68</t>
-  </si>
-  <si>
     <t>Термонаклейка Кит прягает из воды закат</t>
   </si>
   <si>
-    <t>у21</t>
-  </si>
-  <si>
     <t>Термонаклейка Пантера рычит звезды розовый фон</t>
-  </si>
-  <si>
-    <t>т65</t>
   </si>
 </sst>
 </file>
@@ -1151,19 +823,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:S112"/>
+  <dimension ref="A1:P112"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
-      <selection activeCell="G92" sqref="G92"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N6" sqref="N6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="46.7109375" customWidth="1"/>
-    <col min="2" max="18" width="4.28515625" customWidth="1"/>
+    <col min="1" max="1" width="41.5703125" customWidth="1"/>
+    <col min="2" max="15" width="4.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1209,20 +881,11 @@
       <c r="O1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="P1" s="2"/>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
         <v>15</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="S1" s="2"/>
-    </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
-        <v>18</v>
       </c>
       <c r="B2" s="3">
         <v>2</v>
@@ -1260,26 +923,17 @@
       <c r="M2" s="3">
         <v>22</v>
       </c>
-      <c r="N2" s="3">
-        <v>110</v>
-      </c>
-      <c r="O2" s="3">
-        <v>0</v>
-      </c>
-      <c r="P2" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q2" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="R2" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="S2" s="2"/>
-    </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="N2" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="O2" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="P2" s="2"/>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B3" s="3">
         <v>2</v>
@@ -1317,26 +971,17 @@
       <c r="M3" s="3">
         <v>2</v>
       </c>
-      <c r="N3" s="3">
-        <v>48</v>
-      </c>
-      <c r="O3" s="3">
-        <v>0</v>
-      </c>
-      <c r="P3" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q3" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="R3" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="S3" s="2"/>
-    </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="N3" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="O3" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="P3" s="2"/>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="B4" s="3">
         <v>2</v>
@@ -1374,26 +1019,17 @@
       <c r="M4" s="3">
         <v>24</v>
       </c>
-      <c r="N4" s="3">
-        <v>46</v>
-      </c>
-      <c r="O4" s="3">
-        <v>0</v>
-      </c>
-      <c r="P4" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q4" s="3" t="s">
+      <c r="N4" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="O4" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="P4" s="2"/>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
         <v>20</v>
-      </c>
-      <c r="R4" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="S4" s="2"/>
-    </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
-        <v>26</v>
       </c>
       <c r="B5" s="3">
         <v>2</v>
@@ -1431,26 +1067,17 @@
       <c r="M5" s="3">
         <v>2</v>
       </c>
-      <c r="N5" s="3">
-        <v>40</v>
-      </c>
-      <c r="O5" s="3">
-        <v>0</v>
-      </c>
-      <c r="P5" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q5" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="R5" s="3" t="s">
+      <c r="N5" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="O5" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="P5" s="2"/>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
         <v>21</v>
-      </c>
-      <c r="S5" s="2"/>
-    </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
-        <v>28</v>
       </c>
       <c r="B6" s="3">
         <v>2</v>
@@ -1488,26 +1115,17 @@
       <c r="M6" s="3">
         <v>1</v>
       </c>
-      <c r="N6" s="3">
-        <v>34</v>
-      </c>
-      <c r="O6" s="3">
-        <v>0</v>
-      </c>
-      <c r="P6" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q6" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="R6" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="S6" s="2"/>
-    </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="N6" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="O6" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="P6" s="2"/>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="B7" s="3">
         <v>2</v>
@@ -1545,26 +1163,17 @@
       <c r="M7" s="3">
         <v>8</v>
       </c>
-      <c r="N7" s="3">
-        <v>32</v>
-      </c>
-      <c r="O7" s="3">
-        <v>0</v>
-      </c>
-      <c r="P7" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q7" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="R7" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="S7" s="2"/>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="N7" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="O7" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="P7" s="2"/>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="B8" s="3">
         <v>2</v>
@@ -1602,26 +1211,17 @@
       <c r="M8" s="3">
         <v>1</v>
       </c>
-      <c r="N8" s="3">
-        <v>30</v>
-      </c>
-      <c r="O8" s="3">
-        <v>0</v>
-      </c>
-      <c r="P8" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q8" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="R8" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="S8" s="2"/>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="N8" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="O8" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="P8" s="2"/>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="B9" s="4">
         <v>2</v>
@@ -1659,26 +1259,17 @@
       <c r="M9" s="4">
         <v>7</v>
       </c>
-      <c r="N9" s="4">
-        <v>30</v>
-      </c>
-      <c r="O9" s="4">
-        <v>0</v>
-      </c>
-      <c r="P9" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q9" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="R9" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="S9" s="2"/>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="N9" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="O9" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="P9" s="2"/>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="B10" s="4">
         <v>2</v>
@@ -1716,26 +1307,17 @@
       <c r="M10" s="4">
         <v>7</v>
       </c>
-      <c r="N10" s="4">
-        <v>30</v>
-      </c>
-      <c r="O10" s="4">
-        <v>0</v>
-      </c>
-      <c r="P10" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q10" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="R10" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="S10" s="2"/>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="N10" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="O10" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="P10" s="2"/>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="B11" s="4">
         <v>2</v>
@@ -1773,26 +1355,17 @@
       <c r="M11" s="4">
         <v>2</v>
       </c>
-      <c r="N11" s="4">
-        <v>28</v>
-      </c>
-      <c r="O11" s="4">
-        <v>0</v>
-      </c>
-      <c r="P11" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q11" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="R11" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="S11" s="2"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="N11" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="O11" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="P11" s="2"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="B12" s="4">
         <v>1</v>
@@ -1830,26 +1403,17 @@
       <c r="M12" s="4">
         <v>10</v>
       </c>
-      <c r="N12" s="4">
+      <c r="N12" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="O12" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="P12" s="2"/>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A13" s="4" t="s">
         <v>28</v>
-      </c>
-      <c r="O12" s="4">
-        <v>0</v>
-      </c>
-      <c r="P12" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="Q12" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="R12" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="S12" s="2"/>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A13" s="4" t="s">
-        <v>42</v>
       </c>
       <c r="B13" s="4">
         <v>2</v>
@@ -1887,26 +1451,17 @@
       <c r="M13" s="4">
         <v>9</v>
       </c>
-      <c r="N13" s="4">
-        <v>26</v>
-      </c>
-      <c r="O13" s="4">
-        <v>0</v>
-      </c>
-      <c r="P13" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q13" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="R13" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="S13" s="2"/>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="N13" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="O13" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="P13" s="2"/>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="B14" s="4">
         <v>2</v>
@@ -1944,26 +1499,17 @@
       <c r="M14" s="4">
         <v>0</v>
       </c>
-      <c r="N14" s="4">
-        <v>26</v>
-      </c>
-      <c r="O14" s="4">
-        <v>0</v>
-      </c>
-      <c r="P14" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="Q14" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="R14" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="S14" s="2"/>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="N14" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="O14" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="P14" s="2"/>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="B15" s="4">
         <v>2</v>
@@ -2001,26 +1547,17 @@
       <c r="M15" s="4">
         <v>5</v>
       </c>
-      <c r="N15" s="4">
-        <v>26</v>
-      </c>
-      <c r="O15" s="4">
-        <v>0</v>
-      </c>
-      <c r="P15" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="Q15" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="R15" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="S15" s="2"/>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="N15" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="O15" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="P15" s="2"/>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="B16" s="4">
         <v>1</v>
@@ -2058,26 +1595,17 @@
       <c r="M16" s="4">
         <v>12</v>
       </c>
-      <c r="N16" s="4">
-        <v>26</v>
-      </c>
-      <c r="O16" s="4">
-        <v>0</v>
-      </c>
-      <c r="P16" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="Q16" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="R16" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="S16" s="2"/>
-    </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="N16" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="O16" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="P16" s="2"/>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
-        <v>50</v>
+        <v>32</v>
       </c>
       <c r="B17" s="4">
         <v>2</v>
@@ -2115,26 +1643,17 @@
       <c r="M17" s="4">
         <v>0</v>
       </c>
-      <c r="N17" s="4">
-        <v>24</v>
-      </c>
-      <c r="O17" s="4">
-        <v>0</v>
-      </c>
-      <c r="P17" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="Q17" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="R17" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="S17" s="2"/>
-    </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="N17" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="O17" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="P17" s="2"/>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
-        <v>52</v>
+        <v>33</v>
       </c>
       <c r="B18" s="4">
         <v>2</v>
@@ -2172,26 +1691,17 @@
       <c r="M18" s="4">
         <v>0</v>
       </c>
-      <c r="N18" s="4">
-        <v>24</v>
-      </c>
-      <c r="O18" s="4">
-        <v>0</v>
-      </c>
-      <c r="P18" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="Q18" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="R18" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="S18" s="2"/>
-    </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="N18" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="O18" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="P18" s="2"/>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
-        <v>54</v>
+        <v>34</v>
       </c>
       <c r="B19" s="4">
         <v>2</v>
@@ -2229,26 +1739,17 @@
       <c r="M19" s="4">
         <v>0</v>
       </c>
-      <c r="N19" s="4">
-        <v>22</v>
-      </c>
-      <c r="O19" s="4">
-        <v>0</v>
-      </c>
-      <c r="P19" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q19" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="R19" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="S19" s="2"/>
-    </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="N19" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="O19" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="P19" s="2"/>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
-        <v>56</v>
+        <v>35</v>
       </c>
       <c r="B20" s="4">
         <v>1</v>
@@ -2286,26 +1787,17 @@
       <c r="M20" s="4">
         <v>8</v>
       </c>
-      <c r="N20" s="4">
-        <v>22</v>
-      </c>
-      <c r="O20" s="4">
-        <v>0</v>
-      </c>
-      <c r="P20" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="Q20" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="R20" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="S20" s="2"/>
-    </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="N20" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="O20" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="P20" s="2"/>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
-        <v>58</v>
+        <v>36</v>
       </c>
       <c r="B21" s="4">
         <v>1</v>
@@ -2343,26 +1835,17 @@
       <c r="M21" s="4">
         <v>0</v>
       </c>
-      <c r="N21" s="4">
-        <v>20</v>
-      </c>
-      <c r="O21" s="4">
-        <v>0</v>
-      </c>
-      <c r="P21" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="Q21" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="R21" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="S21" s="2"/>
-    </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="N21" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="O21" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="P21" s="2"/>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
-        <v>60</v>
+        <v>37</v>
       </c>
       <c r="B22" s="5">
         <v>1</v>
@@ -2400,26 +1883,17 @@
       <c r="M22" s="5">
         <v>2</v>
       </c>
-      <c r="N22" s="5">
-        <v>20</v>
-      </c>
-      <c r="O22" s="5">
-        <v>0</v>
-      </c>
-      <c r="P22" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="Q22" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="R22" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="S22" s="2"/>
-    </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="N22" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="O22" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="P22" s="2"/>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
-        <v>62</v>
+        <v>38</v>
       </c>
       <c r="B23" s="5">
         <v>1</v>
@@ -2457,26 +1931,17 @@
       <c r="M23" s="5">
         <v>2</v>
       </c>
-      <c r="N23" s="5">
-        <v>20</v>
-      </c>
-      <c r="O23" s="5">
-        <v>0</v>
-      </c>
-      <c r="P23" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="Q23" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="R23" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="S23" s="2"/>
-    </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="N23" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="O23" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="P23" s="2"/>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
-        <v>64</v>
+        <v>39</v>
       </c>
       <c r="B24" s="5">
         <v>1</v>
@@ -2514,26 +1979,17 @@
       <c r="M24" s="5">
         <v>1</v>
       </c>
-      <c r="N24" s="5">
-        <v>18</v>
-      </c>
-      <c r="O24" s="5">
-        <v>0</v>
-      </c>
-      <c r="P24" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="Q24" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="R24" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="S24" s="2"/>
-    </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="N24" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="O24" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="P24" s="2"/>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
-        <v>66</v>
+        <v>40</v>
       </c>
       <c r="B25" s="5">
         <v>1</v>
@@ -2571,26 +2027,17 @@
       <c r="M25" s="5">
         <v>0</v>
       </c>
-      <c r="N25" s="5">
-        <v>18</v>
-      </c>
-      <c r="O25" s="5">
-        <v>0</v>
-      </c>
-      <c r="P25" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="Q25" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="R25" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="S25" s="2"/>
-    </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="N25" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="O25" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="P25" s="2"/>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
-        <v>68</v>
+        <v>41</v>
       </c>
       <c r="B26" s="5">
         <v>1</v>
@@ -2628,26 +2075,17 @@
       <c r="M26" s="5">
         <v>0</v>
       </c>
-      <c r="N26" s="5">
-        <v>18</v>
-      </c>
-      <c r="O26" s="5">
-        <v>0</v>
-      </c>
-      <c r="P26" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="Q26" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="R26" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="S26" s="2"/>
-    </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="N26" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="O26" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="P26" s="2"/>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
-        <v>70</v>
+        <v>42</v>
       </c>
       <c r="B27" s="5">
         <v>1</v>
@@ -2685,26 +2123,17 @@
       <c r="M27" s="5">
         <v>10</v>
       </c>
-      <c r="N27" s="5">
-        <v>18</v>
-      </c>
-      <c r="O27" s="5">
-        <v>0</v>
-      </c>
-      <c r="P27" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="Q27" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="R27" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="S27" s="2"/>
-    </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="N27" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="O27" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="P27" s="2"/>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A28" s="5" t="s">
-        <v>72</v>
+        <v>43</v>
       </c>
       <c r="B28" s="5">
         <v>1</v>
@@ -2742,26 +2171,17 @@
       <c r="M28" s="5">
         <v>0</v>
       </c>
-      <c r="N28" s="5">
-        <v>18</v>
-      </c>
-      <c r="O28" s="5">
-        <v>0</v>
-      </c>
-      <c r="P28" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="Q28" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="R28" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="S28" s="2"/>
-    </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="N28" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="O28" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="P28" s="2"/>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A29" s="5" t="s">
-        <v>74</v>
+        <v>44</v>
       </c>
       <c r="B29" s="5">
         <v>1</v>
@@ -2799,26 +2219,17 @@
       <c r="M29" s="5">
         <v>0</v>
       </c>
-      <c r="N29" s="5">
-        <v>16</v>
-      </c>
-      <c r="O29" s="5">
-        <v>0</v>
-      </c>
-      <c r="P29" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="Q29" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="R29" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="S29" s="2"/>
-    </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="N29" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="O29" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="P29" s="2"/>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
-        <v>76</v>
+        <v>45</v>
       </c>
       <c r="B30" s="5">
         <v>1</v>
@@ -2856,26 +2267,17 @@
       <c r="M30" s="5">
         <v>0</v>
       </c>
-      <c r="N30" s="5">
-        <v>14</v>
-      </c>
-      <c r="O30" s="5">
-        <v>0</v>
-      </c>
-      <c r="P30" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="Q30" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="R30" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="S30" s="2"/>
-    </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="N30" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="O30" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="P30" s="2"/>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
-        <v>78</v>
+        <v>46</v>
       </c>
       <c r="B31" s="5">
         <v>0</v>
@@ -2913,26 +2315,17 @@
       <c r="M31" s="5">
         <v>2</v>
       </c>
-      <c r="N31" s="5">
-        <v>12</v>
-      </c>
-      <c r="O31" s="5">
-        <v>0</v>
-      </c>
-      <c r="P31" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="Q31" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="R31" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="S31" s="2"/>
-    </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="N31" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="O31" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="P31" s="2"/>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="s">
-        <v>80</v>
+        <v>47</v>
       </c>
       <c r="B32" s="5">
         <v>0</v>
@@ -2970,26 +2363,17 @@
       <c r="M32" s="5">
         <v>0</v>
       </c>
-      <c r="N32" s="5">
-        <v>10</v>
-      </c>
-      <c r="O32" s="5">
-        <v>0</v>
-      </c>
-      <c r="P32" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="Q32" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="R32" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="S32" s="2"/>
-    </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="N32" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="O32" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="P32" s="2"/>
+    </row>
+    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A33" s="5" t="s">
-        <v>82</v>
+        <v>48</v>
       </c>
       <c r="B33" s="5">
         <v>0</v>
@@ -3027,26 +2411,17 @@
       <c r="M33" s="5">
         <v>0</v>
       </c>
-      <c r="N33" s="5">
-        <v>10</v>
-      </c>
-      <c r="O33" s="5">
-        <v>0</v>
-      </c>
-      <c r="P33" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="Q33" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="R33" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="S33" s="2"/>
-    </row>
-    <row r="34" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="N33" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="O33" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="P33" s="2"/>
+    </row>
+    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A34" s="5" t="s">
-        <v>84</v>
+        <v>49</v>
       </c>
       <c r="B34" s="5">
         <v>0</v>
@@ -3084,26 +2459,17 @@
       <c r="M34" s="5">
         <v>8</v>
       </c>
-      <c r="N34" s="5">
-        <v>10</v>
-      </c>
-      <c r="O34" s="5">
-        <v>0</v>
-      </c>
-      <c r="P34" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="Q34" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="R34" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="S34" s="2"/>
-    </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="N34" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="O34" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="P34" s="2"/>
+    </row>
+    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A35" s="5" t="s">
-        <v>86</v>
+        <v>50</v>
       </c>
       <c r="B35" s="5">
         <v>0</v>
@@ -3141,26 +2507,17 @@
       <c r="M35" s="5">
         <v>0</v>
       </c>
-      <c r="N35" s="5">
-        <v>10</v>
-      </c>
-      <c r="O35" s="5">
-        <v>0</v>
-      </c>
-      <c r="P35" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="Q35" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="R35" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="S35" s="2"/>
-    </row>
-    <row r="36" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="N35" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="O35" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="P35" s="2"/>
+    </row>
+    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A36" s="5" t="s">
-        <v>88</v>
+        <v>51</v>
       </c>
       <c r="B36" s="5">
         <v>1</v>
@@ -3198,26 +2555,17 @@
       <c r="M36" s="5">
         <v>0</v>
       </c>
-      <c r="N36" s="5">
-        <v>10</v>
-      </c>
-      <c r="O36" s="5">
-        <v>0</v>
-      </c>
-      <c r="P36" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="Q36" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="R36" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="S36" s="2"/>
-    </row>
-    <row r="37" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="N36" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="O36" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="P36" s="2"/>
+    </row>
+    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A37" s="5" t="s">
-        <v>90</v>
+        <v>52</v>
       </c>
       <c r="B37" s="5">
         <v>0</v>
@@ -3255,26 +2603,17 @@
       <c r="M37" s="5">
         <v>2</v>
       </c>
-      <c r="N37" s="5">
-        <v>8</v>
-      </c>
-      <c r="O37" s="5">
-        <v>0</v>
-      </c>
-      <c r="P37" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="Q37" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="R37" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="S37" s="2"/>
-    </row>
-    <row r="38" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="N37" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="O37" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="P37" s="2"/>
+    </row>
+    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A38" s="5" t="s">
-        <v>92</v>
+        <v>53</v>
       </c>
       <c r="B38" s="5">
         <v>0</v>
@@ -3312,26 +2651,17 @@
       <c r="M38" s="5">
         <v>0</v>
       </c>
-      <c r="N38" s="5">
-        <v>8</v>
-      </c>
-      <c r="O38" s="5">
-        <v>0</v>
-      </c>
-      <c r="P38" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="Q38" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="R38" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="S38" s="2"/>
-    </row>
-    <row r="39" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="N38" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="O38" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="P38" s="2"/>
+    </row>
+    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A39" s="5" t="s">
-        <v>94</v>
+        <v>54</v>
       </c>
       <c r="B39" s="5">
         <v>0</v>
@@ -3369,26 +2699,17 @@
       <c r="M39" s="5">
         <v>0</v>
       </c>
-      <c r="N39" s="5">
-        <v>8</v>
-      </c>
-      <c r="O39" s="5">
-        <v>0</v>
-      </c>
-      <c r="P39" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="Q39" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="R39" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="S39" s="2"/>
-    </row>
-    <row r="40" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="N39" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="O39" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="P39" s="2"/>
+    </row>
+    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A40" s="5" t="s">
-        <v>96</v>
+        <v>55</v>
       </c>
       <c r="B40" s="5">
         <v>1</v>
@@ -3426,26 +2747,17 @@
       <c r="M40" s="5">
         <v>2</v>
       </c>
-      <c r="N40" s="5">
-        <v>8</v>
-      </c>
-      <c r="O40" s="5">
-        <v>0</v>
-      </c>
-      <c r="P40" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="Q40" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="R40" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="S40" s="2"/>
-    </row>
-    <row r="41" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="N40" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="O40" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="P40" s="2"/>
+    </row>
+    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A41" s="5" t="s">
-        <v>98</v>
+        <v>56</v>
       </c>
       <c r="B41" s="5">
         <v>1</v>
@@ -3483,26 +2795,17 @@
       <c r="M41" s="5">
         <v>0</v>
       </c>
-      <c r="N41" s="5">
-        <v>8</v>
-      </c>
-      <c r="O41" s="5">
-        <v>0</v>
-      </c>
-      <c r="P41" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="Q41" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="R41" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="S41" s="2"/>
-    </row>
-    <row r="42" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="N41" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="O41" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="P41" s="2"/>
+    </row>
+    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A42" s="5" t="s">
-        <v>100</v>
+        <v>57</v>
       </c>
       <c r="B42" s="5">
         <v>1</v>
@@ -3540,26 +2843,17 @@
       <c r="M42" s="5">
         <v>7</v>
       </c>
-      <c r="N42" s="5">
-        <v>8</v>
-      </c>
-      <c r="O42" s="5">
-        <v>0</v>
-      </c>
-      <c r="P42" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="Q42" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="R42" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="S42" s="2"/>
-    </row>
-    <row r="43" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="N42" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="O42" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="P42" s="2"/>
+    </row>
+    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A43" s="5" t="s">
-        <v>102</v>
+        <v>58</v>
       </c>
       <c r="B43" s="5">
         <v>1</v>
@@ -3597,26 +2891,17 @@
       <c r="M43" s="5">
         <v>0</v>
       </c>
-      <c r="N43" s="5">
-        <v>6</v>
-      </c>
-      <c r="O43" s="5">
-        <v>0</v>
-      </c>
-      <c r="P43" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="Q43" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="R43" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="S43" s="2"/>
-    </row>
-    <row r="44" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="N43" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="O43" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="P43" s="2"/>
+    </row>
+    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A44" s="5" t="s">
-        <v>104</v>
+        <v>59</v>
       </c>
       <c r="B44" s="5">
         <v>1</v>
@@ -3654,26 +2939,17 @@
       <c r="M44" s="5">
         <v>5</v>
       </c>
-      <c r="N44" s="5">
-        <v>6</v>
-      </c>
-      <c r="O44" s="5">
-        <v>0</v>
-      </c>
-      <c r="P44" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="Q44" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="R44" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="S44" s="2"/>
-    </row>
-    <row r="45" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="N44" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="O44" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="P44" s="2"/>
+    </row>
+    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A45" s="5" t="s">
-        <v>106</v>
+        <v>60</v>
       </c>
       <c r="B45" s="5">
         <v>0</v>
@@ -3711,26 +2987,17 @@
       <c r="M45" s="5">
         <v>0</v>
       </c>
-      <c r="N45" s="5">
-        <v>6</v>
-      </c>
-      <c r="O45" s="5">
-        <v>0</v>
-      </c>
-      <c r="P45" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="Q45" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="R45" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="S45" s="2"/>
-    </row>
-    <row r="46" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="N45" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="O45" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="P45" s="2"/>
+    </row>
+    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A46" s="5" t="s">
-        <v>108</v>
+        <v>61</v>
       </c>
       <c r="B46" s="5">
         <v>0</v>
@@ -3768,26 +3035,17 @@
       <c r="M46" s="5">
         <v>0</v>
       </c>
-      <c r="N46" s="5">
-        <v>6</v>
-      </c>
-      <c r="O46" s="5">
-        <v>0</v>
-      </c>
-      <c r="P46" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="Q46" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="R46" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="S46" s="2"/>
-    </row>
-    <row r="47" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="N46" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="O46" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="P46" s="2"/>
+    </row>
+    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A47" s="5" t="s">
-        <v>110</v>
+        <v>62</v>
       </c>
       <c r="B47" s="5">
         <v>0</v>
@@ -3825,26 +3083,17 @@
       <c r="M47" s="5">
         <v>0</v>
       </c>
-      <c r="N47" s="5">
-        <v>6</v>
-      </c>
-      <c r="O47" s="5">
-        <v>0</v>
-      </c>
-      <c r="P47" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="Q47" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="R47" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="S47" s="2"/>
-    </row>
-    <row r="48" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="N47" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="O47" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="P47" s="2"/>
+    </row>
+    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A48" s="5" t="s">
-        <v>112</v>
+        <v>63</v>
       </c>
       <c r="B48" s="5">
         <v>1</v>
@@ -3882,26 +3131,17 @@
       <c r="M48" s="5">
         <v>0</v>
       </c>
-      <c r="N48" s="5">
-        <v>6</v>
-      </c>
-      <c r="O48" s="5">
-        <v>0</v>
-      </c>
-      <c r="P48" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="Q48" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="R48" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="S48" s="2"/>
-    </row>
-    <row r="49" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="N48" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="O48" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="P48" s="2"/>
+    </row>
+    <row r="49" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A49" s="5" t="s">
-        <v>114</v>
+        <v>64</v>
       </c>
       <c r="B49" s="5">
         <v>1</v>
@@ -3939,26 +3179,17 @@
       <c r="M49" s="5">
         <v>0</v>
       </c>
-      <c r="N49" s="5">
-        <v>6</v>
-      </c>
-      <c r="O49" s="5">
-        <v>0</v>
-      </c>
-      <c r="P49" s="5" t="s">
-        <v>115</v>
-      </c>
-      <c r="Q49" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="R49" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="S49" s="2"/>
-    </row>
-    <row r="50" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="N49" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="O49" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="P49" s="2"/>
+    </row>
+    <row r="50" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A50" s="5" t="s">
-        <v>116</v>
+        <v>65</v>
       </c>
       <c r="B50" s="5">
         <v>1</v>
@@ -3996,26 +3227,17 @@
       <c r="M50" s="5">
         <v>0</v>
       </c>
-      <c r="N50" s="5">
-        <v>6</v>
-      </c>
-      <c r="O50" s="5">
-        <v>0</v>
-      </c>
-      <c r="P50" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="Q50" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="R50" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="S50" s="2"/>
-    </row>
-    <row r="51" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="N50" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="O50" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="P50" s="2"/>
+    </row>
+    <row r="51" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A51" s="5" t="s">
-        <v>118</v>
+        <v>66</v>
       </c>
       <c r="B51" s="5">
         <v>0</v>
@@ -4053,26 +3275,17 @@
       <c r="M51" s="5">
         <v>0</v>
       </c>
-      <c r="N51" s="5">
-        <v>6</v>
-      </c>
-      <c r="O51" s="5">
-        <v>0</v>
-      </c>
-      <c r="P51" s="5" t="s">
-        <v>119</v>
-      </c>
-      <c r="Q51" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="R51" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="S51" s="2"/>
-    </row>
-    <row r="52" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="N51" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="O51" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="P51" s="2"/>
+    </row>
+    <row r="52" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A52" s="5" t="s">
-        <v>120</v>
+        <v>67</v>
       </c>
       <c r="B52" s="5">
         <v>0</v>
@@ -4110,26 +3323,17 @@
       <c r="M52" s="5">
         <v>0</v>
       </c>
-      <c r="N52" s="5">
-        <v>6</v>
-      </c>
-      <c r="O52" s="5">
-        <v>0</v>
-      </c>
-      <c r="P52" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="Q52" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="R52" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="S52" s="2"/>
-    </row>
-    <row r="53" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="N52" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="O52" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="P52" s="2"/>
+    </row>
+    <row r="53" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A53" s="5" t="s">
-        <v>122</v>
+        <v>68</v>
       </c>
       <c r="B53" s="5">
         <v>0</v>
@@ -4167,26 +3371,17 @@
       <c r="M53" s="5">
         <v>0</v>
       </c>
-      <c r="N53" s="5">
-        <v>6</v>
-      </c>
-      <c r="O53" s="5">
-        <v>0</v>
-      </c>
-      <c r="P53" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="Q53" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="R53" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="S53" s="2"/>
-    </row>
-    <row r="54" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="N53" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="O53" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="P53" s="2"/>
+    </row>
+    <row r="54" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A54" s="5" t="s">
-        <v>124</v>
+        <v>69</v>
       </c>
       <c r="B54" s="5">
         <v>0</v>
@@ -4224,26 +3419,17 @@
       <c r="M54" s="5">
         <v>0</v>
       </c>
-      <c r="N54" s="5">
-        <v>6</v>
-      </c>
-      <c r="O54" s="5">
-        <v>0</v>
-      </c>
-      <c r="P54" s="5" t="s">
-        <v>125</v>
-      </c>
-      <c r="Q54" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="R54" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="S54" s="2"/>
-    </row>
-    <row r="55" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="N54" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="O54" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="P54" s="2"/>
+    </row>
+    <row r="55" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A55" s="5" t="s">
-        <v>126</v>
+        <v>70</v>
       </c>
       <c r="B55" s="5">
         <v>0</v>
@@ -4281,26 +3467,17 @@
       <c r="M55" s="5">
         <v>0</v>
       </c>
-      <c r="N55" s="5">
-        <v>6</v>
-      </c>
-      <c r="O55" s="5">
-        <v>0</v>
-      </c>
-      <c r="P55" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="Q55" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="R55" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="S55" s="2"/>
-    </row>
-    <row r="56" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="N55" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="O55" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="P55" s="2"/>
+    </row>
+    <row r="56" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A56" s="6" t="s">
-        <v>128</v>
+        <v>71</v>
       </c>
       <c r="B56" s="6">
         <v>0</v>
@@ -4338,26 +3515,17 @@
       <c r="M56" s="6">
         <v>0</v>
       </c>
-      <c r="N56" s="6">
-        <v>6</v>
-      </c>
-      <c r="O56" s="6">
-        <v>0</v>
-      </c>
-      <c r="P56" s="6" t="s">
-        <v>129</v>
-      </c>
-      <c r="Q56" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="R56" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="S56" s="2"/>
-    </row>
-    <row r="57" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="N56" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="O56" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="P56" s="2"/>
+    </row>
+    <row r="57" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A57" s="6" t="s">
-        <v>130</v>
+        <v>72</v>
       </c>
       <c r="B57" s="6">
         <v>0</v>
@@ -4395,26 +3563,17 @@
       <c r="M57" s="6">
         <v>0</v>
       </c>
-      <c r="N57" s="6">
-        <v>6</v>
-      </c>
-      <c r="O57" s="6">
-        <v>0</v>
-      </c>
-      <c r="P57" s="6" t="s">
-        <v>131</v>
-      </c>
-      <c r="Q57" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="R57" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="S57" s="2"/>
-    </row>
-    <row r="58" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="N57" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="O57" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="P57" s="2"/>
+    </row>
+    <row r="58" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A58" s="6" t="s">
-        <v>132</v>
+        <v>73</v>
       </c>
       <c r="B58" s="6">
         <v>0</v>
@@ -4452,26 +3611,17 @@
       <c r="M58" s="6">
         <v>4</v>
       </c>
-      <c r="N58" s="6">
-        <v>6</v>
-      </c>
-      <c r="O58" s="6">
-        <v>0</v>
-      </c>
-      <c r="P58" s="6" t="s">
-        <v>133</v>
-      </c>
-      <c r="Q58" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="R58" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="S58" s="2"/>
-    </row>
-    <row r="59" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="N58" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="O58" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="P58" s="2"/>
+    </row>
+    <row r="59" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A59" s="6" t="s">
-        <v>134</v>
+        <v>74</v>
       </c>
       <c r="B59" s="6">
         <v>0</v>
@@ -4509,26 +3659,17 @@
       <c r="M59" s="6">
         <v>0</v>
       </c>
-      <c r="N59" s="6">
-        <v>6</v>
-      </c>
-      <c r="O59" s="6">
-        <v>0</v>
-      </c>
-      <c r="P59" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="Q59" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="R59" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="S59" s="2"/>
-    </row>
-    <row r="60" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="N59" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="O59" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="P59" s="2"/>
+    </row>
+    <row r="60" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A60" s="6" t="s">
-        <v>136</v>
+        <v>75</v>
       </c>
       <c r="B60" s="6">
         <v>0</v>
@@ -4566,26 +3707,17 @@
       <c r="M60" s="6">
         <v>0</v>
       </c>
-      <c r="N60" s="6">
-        <v>6</v>
-      </c>
-      <c r="O60" s="6">
-        <v>0</v>
-      </c>
-      <c r="P60" s="6" t="s">
-        <v>137</v>
-      </c>
-      <c r="Q60" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="R60" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="S60" s="2"/>
-    </row>
-    <row r="61" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="N60" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="O60" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="P60" s="2"/>
+    </row>
+    <row r="61" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A61" s="6" t="s">
-        <v>138</v>
+        <v>76</v>
       </c>
       <c r="B61" s="6">
         <v>0</v>
@@ -4623,26 +3755,17 @@
       <c r="M61" s="6">
         <v>0</v>
       </c>
-      <c r="N61" s="6">
-        <v>4</v>
-      </c>
-      <c r="O61" s="6">
-        <v>0</v>
-      </c>
-      <c r="P61" s="6" t="s">
-        <v>139</v>
-      </c>
-      <c r="Q61" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="R61" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="S61" s="2"/>
-    </row>
-    <row r="62" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="N61" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="O61" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="P61" s="2"/>
+    </row>
+    <row r="62" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A62" s="6" t="s">
-        <v>140</v>
+        <v>77</v>
       </c>
       <c r="B62" s="6">
         <v>0</v>
@@ -4680,26 +3803,17 @@
       <c r="M62" s="6">
         <v>0</v>
       </c>
-      <c r="N62" s="6">
-        <v>4</v>
-      </c>
-      <c r="O62" s="6">
-        <v>0</v>
-      </c>
-      <c r="P62" s="6" t="s">
-        <v>141</v>
-      </c>
-      <c r="Q62" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="R62" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="S62" s="2"/>
-    </row>
-    <row r="63" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="N62" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="O62" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="P62" s="2"/>
+    </row>
+    <row r="63" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A63" s="6" t="s">
-        <v>142</v>
+        <v>78</v>
       </c>
       <c r="B63" s="6">
         <v>0</v>
@@ -4737,26 +3851,17 @@
       <c r="M63" s="6">
         <v>0</v>
       </c>
-      <c r="N63" s="6">
-        <v>4</v>
-      </c>
-      <c r="O63" s="6">
-        <v>0</v>
-      </c>
-      <c r="P63" s="6" t="s">
-        <v>143</v>
-      </c>
-      <c r="Q63" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="R63" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="S63" s="2"/>
-    </row>
-    <row r="64" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="N63" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="O63" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="P63" s="2"/>
+    </row>
+    <row r="64" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A64" s="6" t="s">
-        <v>144</v>
+        <v>79</v>
       </c>
       <c r="B64" s="6">
         <v>0</v>
@@ -4794,26 +3899,17 @@
       <c r="M64" s="6">
         <v>4</v>
       </c>
-      <c r="N64" s="6">
-        <v>4</v>
-      </c>
-      <c r="O64" s="6">
-        <v>0</v>
-      </c>
-      <c r="P64" s="6" t="s">
-        <v>145</v>
-      </c>
-      <c r="Q64" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="R64" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="S64" s="2"/>
-    </row>
-    <row r="65" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="N64" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="O64" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="P64" s="2"/>
+    </row>
+    <row r="65" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A65" s="6" t="s">
-        <v>146</v>
+        <v>80</v>
       </c>
       <c r="B65" s="6">
         <v>0</v>
@@ -4851,26 +3947,17 @@
       <c r="M65" s="6">
         <v>0</v>
       </c>
-      <c r="N65" s="6">
-        <v>4</v>
-      </c>
-      <c r="O65" s="6">
-        <v>0</v>
-      </c>
-      <c r="P65" s="6" t="s">
-        <v>147</v>
-      </c>
-      <c r="Q65" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="R65" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="S65" s="2"/>
-    </row>
-    <row r="66" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="N65" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="O65" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="P65" s="2"/>
+    </row>
+    <row r="66" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A66" s="6" t="s">
-        <v>148</v>
+        <v>81</v>
       </c>
       <c r="B66" s="6">
         <v>0</v>
@@ -4908,26 +3995,17 @@
       <c r="M66" s="6">
         <v>0</v>
       </c>
-      <c r="N66" s="6">
-        <v>4</v>
-      </c>
-      <c r="O66" s="6">
-        <v>0</v>
-      </c>
-      <c r="P66" s="6" t="s">
-        <v>149</v>
-      </c>
-      <c r="Q66" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="R66" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="S66" s="2"/>
-    </row>
-    <row r="67" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="N66" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="O66" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="P66" s="2"/>
+    </row>
+    <row r="67" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A67" s="6" t="s">
-        <v>150</v>
+        <v>82</v>
       </c>
       <c r="B67" s="6">
         <v>0</v>
@@ -4965,26 +4043,17 @@
       <c r="M67" s="6">
         <v>2</v>
       </c>
-      <c r="N67" s="6">
-        <v>4</v>
-      </c>
-      <c r="O67" s="6">
-        <v>0</v>
-      </c>
-      <c r="P67" s="6" t="s">
-        <v>151</v>
-      </c>
-      <c r="Q67" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="R67" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="S67" s="2"/>
-    </row>
-    <row r="68" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="N67" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="O67" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="P67" s="2"/>
+    </row>
+    <row r="68" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A68" s="6" t="s">
-        <v>152</v>
+        <v>83</v>
       </c>
       <c r="B68" s="6">
         <v>0</v>
@@ -5022,26 +4091,17 @@
       <c r="M68" s="6">
         <v>0</v>
       </c>
-      <c r="N68" s="6">
-        <v>4</v>
-      </c>
-      <c r="O68" s="6">
-        <v>0</v>
-      </c>
-      <c r="P68" s="6" t="s">
-        <v>153</v>
-      </c>
-      <c r="Q68" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="R68" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="S68" s="2"/>
-    </row>
-    <row r="69" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="N68" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="O68" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="P68" s="2"/>
+    </row>
+    <row r="69" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A69" s="6" t="s">
-        <v>154</v>
+        <v>84</v>
       </c>
       <c r="B69" s="6">
         <v>0</v>
@@ -5079,26 +4139,17 @@
       <c r="M69" s="6">
         <v>0</v>
       </c>
-      <c r="N69" s="6">
-        <v>4</v>
-      </c>
-      <c r="O69" s="6">
-        <v>0</v>
-      </c>
-      <c r="P69" s="6" t="s">
-        <v>155</v>
-      </c>
-      <c r="Q69" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="R69" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="S69" s="2"/>
-    </row>
-    <row r="70" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="N69" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="O69" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="P69" s="2"/>
+    </row>
+    <row r="70" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A70" s="6" t="s">
-        <v>156</v>
+        <v>85</v>
       </c>
       <c r="B70" s="6">
         <v>0</v>
@@ -5136,26 +4187,17 @@
       <c r="M70" s="6">
         <v>0</v>
       </c>
-      <c r="N70" s="6">
-        <v>2</v>
-      </c>
-      <c r="O70" s="6">
-        <v>0</v>
-      </c>
-      <c r="P70" s="6" t="s">
-        <v>157</v>
-      </c>
-      <c r="Q70" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="R70" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="S70" s="2"/>
-    </row>
-    <row r="71" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="N70" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="O70" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="P70" s="2"/>
+    </row>
+    <row r="71" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A71" s="6" t="s">
-        <v>158</v>
+        <v>86</v>
       </c>
       <c r="B71" s="6">
         <v>1</v>
@@ -5193,26 +4235,17 @@
       <c r="M71" s="6">
         <v>0</v>
       </c>
-      <c r="N71" s="6">
-        <v>2</v>
-      </c>
-      <c r="O71" s="6">
-        <v>0</v>
-      </c>
-      <c r="P71" s="6" t="s">
-        <v>159</v>
-      </c>
-      <c r="Q71" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="R71" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="S71" s="2"/>
-    </row>
-    <row r="72" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="N71" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="O71" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="P71" s="2"/>
+    </row>
+    <row r="72" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A72" s="6" t="s">
-        <v>160</v>
+        <v>87</v>
       </c>
       <c r="B72" s="6">
         <v>0</v>
@@ -5250,26 +4283,17 @@
       <c r="M72" s="6">
         <v>0</v>
       </c>
-      <c r="N72" s="6">
-        <v>2</v>
-      </c>
-      <c r="O72" s="6">
-        <v>0</v>
-      </c>
-      <c r="P72" s="6" t="s">
-        <v>161</v>
-      </c>
-      <c r="Q72" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="R72" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="S72" s="2"/>
-    </row>
-    <row r="73" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="N72" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="O72" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="P72" s="2"/>
+    </row>
+    <row r="73" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A73" s="6" t="s">
-        <v>162</v>
+        <v>88</v>
       </c>
       <c r="B73" s="6">
         <v>0</v>
@@ -5307,26 +4331,17 @@
       <c r="M73" s="6">
         <v>0</v>
       </c>
-      <c r="N73" s="6">
-        <v>2</v>
-      </c>
-      <c r="O73" s="6">
-        <v>0</v>
-      </c>
-      <c r="P73" s="6" t="s">
-        <v>163</v>
-      </c>
-      <c r="Q73" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="R73" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="S73" s="2"/>
-    </row>
-    <row r="74" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="N73" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="O73" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="P73" s="2"/>
+    </row>
+    <row r="74" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A74" s="6" t="s">
-        <v>164</v>
+        <v>89</v>
       </c>
       <c r="B74" s="6">
         <v>0</v>
@@ -5364,26 +4379,17 @@
       <c r="M74" s="6">
         <v>0</v>
       </c>
-      <c r="N74" s="6">
-        <v>2</v>
-      </c>
-      <c r="O74" s="6">
-        <v>0</v>
-      </c>
-      <c r="P74" s="6" t="s">
-        <v>165</v>
-      </c>
-      <c r="Q74" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="R74" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="S74" s="2"/>
-    </row>
-    <row r="75" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="N74" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="O74" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="P74" s="2"/>
+    </row>
+    <row r="75" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A75" s="6" t="s">
-        <v>166</v>
+        <v>90</v>
       </c>
       <c r="B75" s="6">
         <v>0</v>
@@ -5421,26 +4427,17 @@
       <c r="M75" s="6">
         <v>0</v>
       </c>
-      <c r="N75" s="6">
-        <v>2</v>
-      </c>
-      <c r="O75" s="6">
-        <v>0</v>
-      </c>
-      <c r="P75" s="6" t="s">
-        <v>167</v>
-      </c>
-      <c r="Q75" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="R75" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="S75" s="2"/>
-    </row>
-    <row r="76" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="N75" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="O75" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="P75" s="2"/>
+    </row>
+    <row r="76" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A76" s="6" t="s">
-        <v>168</v>
+        <v>91</v>
       </c>
       <c r="B76" s="6">
         <v>2</v>
@@ -5478,26 +4475,17 @@
       <c r="M76" s="6">
         <v>0</v>
       </c>
-      <c r="N76" s="6">
-        <v>2</v>
-      </c>
-      <c r="O76" s="6">
-        <v>0</v>
-      </c>
-      <c r="P76" s="6" t="s">
-        <v>169</v>
-      </c>
-      <c r="Q76" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="R76" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="S76" s="2"/>
-    </row>
-    <row r="77" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="N76" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="O76" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="P76" s="2"/>
+    </row>
+    <row r="77" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A77" s="6" t="s">
-        <v>170</v>
+        <v>92</v>
       </c>
       <c r="B77" s="6">
         <v>0</v>
@@ -5535,26 +4523,17 @@
       <c r="M77" s="6">
         <v>0</v>
       </c>
-      <c r="N77" s="6">
-        <v>2</v>
-      </c>
-      <c r="O77" s="6">
-        <v>0</v>
-      </c>
-      <c r="P77" s="6" t="s">
-        <v>171</v>
-      </c>
-      <c r="Q77" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="R77" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="S77" s="2"/>
-    </row>
-    <row r="78" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="N77" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="O77" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="P77" s="2"/>
+    </row>
+    <row r="78" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A78" s="6" t="s">
-        <v>172</v>
+        <v>93</v>
       </c>
       <c r="B78" s="6">
         <v>0</v>
@@ -5592,26 +4571,17 @@
       <c r="M78" s="6">
         <v>0</v>
       </c>
-      <c r="N78" s="6">
-        <v>2</v>
-      </c>
-      <c r="O78" s="6">
-        <v>0</v>
-      </c>
-      <c r="P78" s="6" t="s">
-        <v>173</v>
-      </c>
-      <c r="Q78" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="R78" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="S78" s="2"/>
-    </row>
-    <row r="79" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="N78" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="O78" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="P78" s="2"/>
+    </row>
+    <row r="79" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A79" s="6" t="s">
-        <v>174</v>
+        <v>94</v>
       </c>
       <c r="B79" s="6">
         <v>0</v>
@@ -5649,26 +4619,17 @@
       <c r="M79" s="6">
         <v>0</v>
       </c>
-      <c r="N79" s="6">
-        <v>2</v>
-      </c>
-      <c r="O79" s="6">
-        <v>0</v>
-      </c>
-      <c r="P79" s="6" t="s">
-        <v>175</v>
-      </c>
-      <c r="Q79" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="R79" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="S79" s="2"/>
-    </row>
-    <row r="80" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="N79" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="O79" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="P79" s="2"/>
+    </row>
+    <row r="80" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A80" s="6" t="s">
-        <v>176</v>
+        <v>95</v>
       </c>
       <c r="B80" s="6">
         <v>0</v>
@@ -5706,26 +4667,17 @@
       <c r="M80" s="6">
         <v>0</v>
       </c>
-      <c r="N80" s="6">
-        <v>2</v>
-      </c>
-      <c r="O80" s="6">
-        <v>0</v>
-      </c>
-      <c r="P80" s="6" t="s">
-        <v>177</v>
-      </c>
-      <c r="Q80" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="R80" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="S80" s="2"/>
-    </row>
-    <row r="81" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="N80" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="O80" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="P80" s="2"/>
+    </row>
+    <row r="81" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A81" s="6" t="s">
-        <v>178</v>
+        <v>96</v>
       </c>
       <c r="B81" s="6">
         <v>0</v>
@@ -5763,26 +4715,17 @@
       <c r="M81" s="6">
         <v>0</v>
       </c>
-      <c r="N81" s="6">
-        <v>2</v>
-      </c>
-      <c r="O81" s="6">
-        <v>0</v>
-      </c>
-      <c r="P81" s="6" t="s">
-        <v>179</v>
-      </c>
-      <c r="Q81" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="R81" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="S81" s="2"/>
-    </row>
-    <row r="82" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="N81" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="O81" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="P81" s="2"/>
+    </row>
+    <row r="82" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A82" s="6" t="s">
-        <v>180</v>
+        <v>97</v>
       </c>
       <c r="B82" s="6">
         <v>0</v>
@@ -5820,26 +4763,17 @@
       <c r="M82" s="6">
         <v>0</v>
       </c>
-      <c r="N82" s="6">
-        <v>2</v>
-      </c>
-      <c r="O82" s="6">
-        <v>0</v>
-      </c>
-      <c r="P82" s="6" t="s">
-        <v>181</v>
-      </c>
-      <c r="Q82" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="R82" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="S82" s="2"/>
-    </row>
-    <row r="83" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="N82" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="O82" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="P82" s="2"/>
+    </row>
+    <row r="83" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A83" s="6" t="s">
-        <v>182</v>
+        <v>98</v>
       </c>
       <c r="B83" s="6">
         <v>0</v>
@@ -5877,26 +4811,17 @@
       <c r="M83" s="6">
         <v>0</v>
       </c>
-      <c r="N83" s="6">
-        <v>2</v>
-      </c>
-      <c r="O83" s="6">
-        <v>0</v>
-      </c>
-      <c r="P83" s="6" t="s">
-        <v>183</v>
-      </c>
-      <c r="Q83" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="R83" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="S83" s="2"/>
-    </row>
-    <row r="84" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="N83" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="O83" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="P83" s="2"/>
+    </row>
+    <row r="84" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A84" s="6" t="s">
-        <v>184</v>
+        <v>99</v>
       </c>
       <c r="B84" s="6">
         <v>0</v>
@@ -5934,26 +4859,17 @@
       <c r="M84" s="6">
         <v>0</v>
       </c>
-      <c r="N84" s="6">
-        <v>2</v>
-      </c>
-      <c r="O84" s="6">
-        <v>0</v>
-      </c>
-      <c r="P84" s="6" t="s">
-        <v>185</v>
-      </c>
-      <c r="Q84" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="R84" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="S84" s="2"/>
-    </row>
-    <row r="85" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="N84" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="O84" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="P84" s="2"/>
+    </row>
+    <row r="85" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A85" s="6" t="s">
-        <v>186</v>
+        <v>100</v>
       </c>
       <c r="B85" s="6">
         <v>2</v>
@@ -5991,26 +4907,17 @@
       <c r="M85" s="6">
         <v>14</v>
       </c>
-      <c r="N85" s="6">
-        <v>48</v>
-      </c>
-      <c r="O85" s="6">
-        <v>0</v>
-      </c>
-      <c r="P85" s="6" t="s">
-        <v>187</v>
-      </c>
-      <c r="Q85" s="6" t="s">
-        <v>188</v>
-      </c>
-      <c r="R85" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="S85" s="2"/>
-    </row>
-    <row r="86" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="N85" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="O85" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="P85" s="2"/>
+    </row>
+    <row r="86" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A86" s="6" t="s">
-        <v>189</v>
+        <v>102</v>
       </c>
       <c r="B86" s="6">
         <v>2</v>
@@ -6048,26 +4955,17 @@
       <c r="M86" s="6">
         <v>0</v>
       </c>
-      <c r="N86" s="6">
-        <v>40</v>
-      </c>
-      <c r="O86" s="6">
-        <v>0</v>
-      </c>
-      <c r="P86" s="6" t="s">
-        <v>190</v>
-      </c>
-      <c r="Q86" s="6" t="s">
-        <v>188</v>
-      </c>
-      <c r="R86" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="S86" s="2"/>
-    </row>
-    <row r="87" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="N86" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="O86" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="P86" s="2"/>
+    </row>
+    <row r="87" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A87" s="6" t="s">
-        <v>191</v>
+        <v>103</v>
       </c>
       <c r="B87" s="6">
         <v>1</v>
@@ -6105,26 +5003,17 @@
       <c r="M87" s="6">
         <v>2</v>
       </c>
-      <c r="N87" s="6">
-        <v>20</v>
-      </c>
-      <c r="O87" s="6">
-        <v>0</v>
-      </c>
-      <c r="P87" s="6" t="s">
-        <v>192</v>
-      </c>
-      <c r="Q87" s="6" t="s">
-        <v>188</v>
-      </c>
-      <c r="R87" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="S87" s="2"/>
-    </row>
-    <row r="88" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="N87" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="O87" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="P87" s="2"/>
+    </row>
+    <row r="88" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A88" s="6" t="s">
-        <v>193</v>
+        <v>104</v>
       </c>
       <c r="B88" s="6">
         <v>1</v>
@@ -6162,26 +5051,17 @@
       <c r="M88" s="6">
         <v>1</v>
       </c>
-      <c r="N88" s="6">
-        <v>20</v>
-      </c>
-      <c r="O88" s="6">
-        <v>0</v>
-      </c>
-      <c r="P88" s="6" t="s">
-        <v>194</v>
-      </c>
-      <c r="Q88" s="6" t="s">
-        <v>188</v>
-      </c>
-      <c r="R88" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="S88" s="2"/>
-    </row>
-    <row r="89" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="N88" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="O88" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="P88" s="2"/>
+    </row>
+    <row r="89" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A89" s="6" t="s">
-        <v>195</v>
+        <v>105</v>
       </c>
       <c r="B89" s="6">
         <v>1</v>
@@ -6219,26 +5099,17 @@
       <c r="M89" s="6">
         <v>1</v>
       </c>
-      <c r="N89" s="6">
-        <v>20</v>
-      </c>
-      <c r="O89" s="6">
-        <v>0</v>
-      </c>
-      <c r="P89" s="6" t="s">
-        <v>196</v>
-      </c>
-      <c r="Q89" s="6" t="s">
-        <v>188</v>
-      </c>
-      <c r="R89" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="S89" s="2"/>
-    </row>
-    <row r="90" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="N89" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="O89" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="P89" s="2"/>
+    </row>
+    <row r="90" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A90" s="6" t="s">
-        <v>197</v>
+        <v>106</v>
       </c>
       <c r="B90" s="6">
         <v>1</v>
@@ -6276,26 +5147,17 @@
       <c r="M90" s="6">
         <v>1</v>
       </c>
-      <c r="N90" s="6">
-        <v>12</v>
-      </c>
-      <c r="O90" s="6">
-        <v>0</v>
-      </c>
-      <c r="P90" s="6" t="s">
-        <v>198</v>
-      </c>
-      <c r="Q90" s="6" t="s">
-        <v>188</v>
-      </c>
-      <c r="R90" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="S90" s="2"/>
-    </row>
-    <row r="91" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="N90" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="O90" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="P90" s="2"/>
+    </row>
+    <row r="91" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A91" s="6" t="s">
-        <v>199</v>
+        <v>107</v>
       </c>
       <c r="B91" s="6">
         <v>1</v>
@@ -6333,26 +5195,17 @@
       <c r="M91" s="6">
         <v>2</v>
       </c>
-      <c r="N91" s="6">
-        <v>12</v>
-      </c>
-      <c r="O91" s="6">
-        <v>0</v>
-      </c>
-      <c r="P91" s="6" t="s">
-        <v>200</v>
-      </c>
-      <c r="Q91" s="6" t="s">
-        <v>188</v>
-      </c>
-      <c r="R91" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="S91" s="2"/>
-    </row>
-    <row r="92" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="N91" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="O91" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="P91" s="2"/>
+    </row>
+    <row r="92" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A92" s="6" t="s">
-        <v>201</v>
+        <v>108</v>
       </c>
       <c r="B92" s="6">
         <v>1</v>
@@ -6390,26 +5243,17 @@
       <c r="M92" s="6">
         <v>0</v>
       </c>
-      <c r="N92" s="6">
-        <v>12</v>
-      </c>
-      <c r="O92" s="6">
-        <v>0</v>
-      </c>
-      <c r="P92" s="6" t="s">
-        <v>202</v>
-      </c>
-      <c r="Q92" s="6" t="s">
-        <v>188</v>
-      </c>
-      <c r="R92" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="S92" s="2"/>
-    </row>
-    <row r="93" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="N92" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="O92" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="P92" s="2"/>
+    </row>
+    <row r="93" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A93" s="6" t="s">
-        <v>203</v>
+        <v>109</v>
       </c>
       <c r="B93" s="6">
         <v>1</v>
@@ -6447,26 +5291,17 @@
       <c r="M93" s="6">
         <v>0</v>
       </c>
-      <c r="N93" s="6">
-        <v>8</v>
-      </c>
-      <c r="O93" s="6">
-        <v>0</v>
-      </c>
-      <c r="P93" s="6" t="s">
-        <v>204</v>
-      </c>
-      <c r="Q93" s="6" t="s">
-        <v>188</v>
-      </c>
-      <c r="R93" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="S93" s="2"/>
-    </row>
-    <row r="94" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="N93" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="O93" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="P93" s="2"/>
+    </row>
+    <row r="94" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A94" s="6" t="s">
-        <v>205</v>
+        <v>110</v>
       </c>
       <c r="B94" s="6">
         <v>1</v>
@@ -6504,26 +5339,17 @@
       <c r="M94" s="6">
         <v>4</v>
       </c>
-      <c r="N94" s="6">
-        <v>8</v>
-      </c>
-      <c r="O94" s="6">
-        <v>0</v>
-      </c>
-      <c r="P94" s="6" t="s">
-        <v>206</v>
-      </c>
-      <c r="Q94" s="6" t="s">
-        <v>188</v>
-      </c>
-      <c r="R94" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="S94" s="2"/>
-    </row>
-    <row r="95" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="N94" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="O94" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="P94" s="2"/>
+    </row>
+    <row r="95" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A95" s="6" t="s">
-        <v>207</v>
+        <v>111</v>
       </c>
       <c r="B95" s="6">
         <v>1</v>
@@ -6561,26 +5387,17 @@
       <c r="M95" s="6">
         <v>0</v>
       </c>
-      <c r="N95" s="6">
-        <v>8</v>
-      </c>
-      <c r="O95" s="6">
-        <v>0</v>
-      </c>
-      <c r="P95" s="6" t="s">
-        <v>208</v>
-      </c>
-      <c r="Q95" s="6" t="s">
-        <v>188</v>
-      </c>
-      <c r="R95" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="S95" s="2"/>
-    </row>
-    <row r="96" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="N95" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="O95" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="P95" s="2"/>
+    </row>
+    <row r="96" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A96" s="6" t="s">
-        <v>209</v>
+        <v>112</v>
       </c>
       <c r="B96" s="6">
         <v>1</v>
@@ -6618,26 +5435,17 @@
       <c r="M96" s="6">
         <v>0</v>
       </c>
-      <c r="N96" s="6">
-        <v>8</v>
-      </c>
-      <c r="O96" s="6">
-        <v>0</v>
-      </c>
-      <c r="P96" s="6" t="s">
-        <v>210</v>
-      </c>
-      <c r="Q96" s="6" t="s">
-        <v>188</v>
-      </c>
-      <c r="R96" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="S96" s="2"/>
-    </row>
-    <row r="97" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="N96" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="O96" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="P96" s="2"/>
+    </row>
+    <row r="97" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A97" s="6" t="s">
-        <v>211</v>
+        <v>113</v>
       </c>
       <c r="B97" s="6">
         <v>1</v>
@@ -6675,26 +5483,17 @@
       <c r="M97" s="6">
         <v>0</v>
       </c>
-      <c r="N97" s="6">
-        <v>8</v>
-      </c>
-      <c r="O97" s="6">
-        <v>0</v>
-      </c>
-      <c r="P97" s="6" t="s">
-        <v>212</v>
-      </c>
-      <c r="Q97" s="6" t="s">
-        <v>188</v>
-      </c>
-      <c r="R97" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="S97" s="2"/>
-    </row>
-    <row r="98" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="N97" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="O97" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="P97" s="2"/>
+    </row>
+    <row r="98" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A98" s="6" t="s">
-        <v>213</v>
+        <v>114</v>
       </c>
       <c r="B98" s="6">
         <v>1</v>
@@ -6732,26 +5531,17 @@
       <c r="M98" s="6">
         <v>0</v>
       </c>
-      <c r="N98" s="6">
-        <v>8</v>
-      </c>
-      <c r="O98" s="6">
-        <v>0</v>
-      </c>
-      <c r="P98" s="6" t="s">
-        <v>214</v>
-      </c>
-      <c r="Q98" s="6" t="s">
-        <v>188</v>
-      </c>
-      <c r="R98" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="S98" s="2"/>
-    </row>
-    <row r="99" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="N98" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="O98" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="P98" s="2"/>
+    </row>
+    <row r="99" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A99" s="6" t="s">
-        <v>215</v>
+        <v>115</v>
       </c>
       <c r="B99" s="6">
         <v>2</v>
@@ -6789,26 +5579,17 @@
       <c r="M99" s="6">
         <v>0</v>
       </c>
-      <c r="N99" s="6">
-        <v>8</v>
-      </c>
-      <c r="O99" s="6">
-        <v>0</v>
-      </c>
-      <c r="P99" s="6" t="s">
-        <v>216</v>
-      </c>
-      <c r="Q99" s="6" t="s">
-        <v>188</v>
-      </c>
-      <c r="R99" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="S99" s="2"/>
-    </row>
-    <row r="100" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="N99" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="O99" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="P99" s="2"/>
+    </row>
+    <row r="100" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A100" s="6" t="s">
-        <v>217</v>
+        <v>116</v>
       </c>
       <c r="B100" s="6">
         <v>1</v>
@@ -6846,26 +5627,17 @@
       <c r="M100" s="6">
         <v>0</v>
       </c>
-      <c r="N100" s="6">
-        <v>8</v>
-      </c>
-      <c r="O100" s="6">
-        <v>0</v>
-      </c>
-      <c r="P100" s="6" t="s">
-        <v>218</v>
-      </c>
-      <c r="Q100" s="6" t="s">
-        <v>188</v>
-      </c>
-      <c r="R100" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="S100" s="2"/>
-    </row>
-    <row r="101" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="N100" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="O100" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="P100" s="2"/>
+    </row>
+    <row r="101" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A101" s="6" t="s">
-        <v>219</v>
+        <v>117</v>
       </c>
       <c r="B101" s="6">
         <v>0</v>
@@ -6903,26 +5675,17 @@
       <c r="M101" s="6">
         <v>1</v>
       </c>
-      <c r="N101" s="6">
-        <v>4</v>
-      </c>
-      <c r="O101" s="6">
-        <v>0</v>
-      </c>
-      <c r="P101" s="6" t="s">
-        <v>220</v>
-      </c>
-      <c r="Q101" s="6" t="s">
-        <v>188</v>
-      </c>
-      <c r="R101" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="S101" s="2"/>
-    </row>
-    <row r="102" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="N101" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="O101" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="P101" s="2"/>
+    </row>
+    <row r="102" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A102" s="7" t="s">
-        <v>221</v>
+        <v>118</v>
       </c>
       <c r="B102" s="7">
         <v>1</v>
@@ -6960,26 +5723,17 @@
       <c r="M102" s="7">
         <v>0</v>
       </c>
-      <c r="N102" s="7">
-        <v>4</v>
-      </c>
-      <c r="O102" s="7">
-        <v>0</v>
-      </c>
-      <c r="P102" s="7" t="s">
-        <v>222</v>
-      </c>
-      <c r="Q102" s="7" t="s">
-        <v>188</v>
-      </c>
-      <c r="R102" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="S102" s="2"/>
-    </row>
-    <row r="103" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="N102" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="O102" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="P102" s="2"/>
+    </row>
+    <row r="103" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A103" s="7" t="s">
-        <v>223</v>
+        <v>119</v>
       </c>
       <c r="B103" s="7">
         <v>1</v>
@@ -7017,26 +5771,17 @@
       <c r="M103" s="7">
         <v>0</v>
       </c>
-      <c r="N103" s="7">
-        <v>4</v>
-      </c>
-      <c r="O103" s="7">
-        <v>0</v>
-      </c>
-      <c r="P103" s="7" t="s">
-        <v>224</v>
-      </c>
-      <c r="Q103" s="7" t="s">
-        <v>188</v>
-      </c>
-      <c r="R103" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="S103" s="2"/>
-    </row>
-    <row r="104" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="N103" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="O103" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="P103" s="2"/>
+    </row>
+    <row r="104" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A104" s="7" t="s">
-        <v>225</v>
+        <v>120</v>
       </c>
       <c r="B104" s="7">
         <v>1</v>
@@ -7074,26 +5819,17 @@
       <c r="M104" s="7">
         <v>0</v>
       </c>
-      <c r="N104" s="7">
-        <v>4</v>
-      </c>
-      <c r="O104" s="7">
-        <v>0</v>
-      </c>
-      <c r="P104" s="7" t="s">
-        <v>226</v>
-      </c>
-      <c r="Q104" s="7" t="s">
-        <v>188</v>
-      </c>
-      <c r="R104" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="S104" s="2"/>
-    </row>
-    <row r="105" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="N104" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="O104" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="P104" s="2"/>
+    </row>
+    <row r="105" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A105" s="7" t="s">
-        <v>227</v>
+        <v>121</v>
       </c>
       <c r="B105" s="7">
         <v>1</v>
@@ -7131,26 +5867,17 @@
       <c r="M105" s="7">
         <v>0</v>
       </c>
-      <c r="N105" s="7">
-        <v>4</v>
-      </c>
-      <c r="O105" s="7">
-        <v>0</v>
-      </c>
-      <c r="P105" s="7" t="s">
-        <v>228</v>
-      </c>
-      <c r="Q105" s="7" t="s">
-        <v>188</v>
-      </c>
-      <c r="R105" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="S105" s="2"/>
-    </row>
-    <row r="106" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="N105" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="O105" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="P105" s="2"/>
+    </row>
+    <row r="106" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A106" s="8" t="s">
-        <v>229</v>
+        <v>122</v>
       </c>
       <c r="B106" s="8">
         <v>1</v>
@@ -7188,26 +5915,17 @@
       <c r="M106" s="8">
         <v>1</v>
       </c>
-      <c r="N106" s="8">
-        <v>18</v>
-      </c>
-      <c r="O106" s="8">
-        <v>0</v>
-      </c>
-      <c r="P106" s="8" t="s">
-        <v>230</v>
-      </c>
-      <c r="Q106" s="8" t="s">
-        <v>231</v>
-      </c>
-      <c r="R106" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="S106" s="2"/>
-    </row>
-    <row r="107" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="N106" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="O106" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="P106" s="2"/>
+    </row>
+    <row r="107" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A107" s="8" t="s">
-        <v>232</v>
+        <v>124</v>
       </c>
       <c r="B107" s="8">
         <v>0</v>
@@ -7245,26 +5963,17 @@
       <c r="M107" s="8">
         <v>4</v>
       </c>
-      <c r="N107" s="8">
-        <v>4</v>
-      </c>
-      <c r="O107" s="8">
-        <v>0</v>
-      </c>
-      <c r="P107" s="8" t="s">
-        <v>233</v>
-      </c>
-      <c r="Q107" s="8" t="s">
-        <v>231</v>
-      </c>
-      <c r="R107" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="S107" s="2"/>
-    </row>
-    <row r="108" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="N107" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="O107" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="P107" s="2"/>
+    </row>
+    <row r="108" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A108" s="8" t="s">
-        <v>234</v>
+        <v>125</v>
       </c>
       <c r="B108" s="8">
         <v>0</v>
@@ -7302,26 +6011,17 @@
       <c r="M108" s="8">
         <v>0</v>
       </c>
-      <c r="N108" s="8">
-        <v>4</v>
-      </c>
-      <c r="O108" s="8">
-        <v>0</v>
-      </c>
-      <c r="P108" s="8" t="s">
-        <v>235</v>
-      </c>
-      <c r="Q108" s="8" t="s">
-        <v>231</v>
-      </c>
-      <c r="R108" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="S108" s="2"/>
-    </row>
-    <row r="109" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="N108" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="O108" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="P108" s="2"/>
+    </row>
+    <row r="109" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A109" s="8" t="s">
-        <v>236</v>
+        <v>126</v>
       </c>
       <c r="B109" s="8">
         <v>0</v>
@@ -7359,26 +6059,17 @@
       <c r="M109" s="8">
         <v>0</v>
       </c>
-      <c r="N109" s="8">
-        <v>2</v>
-      </c>
-      <c r="O109" s="8">
-        <v>0</v>
-      </c>
-      <c r="P109" s="8" t="s">
-        <v>237</v>
-      </c>
-      <c r="Q109" s="8" t="s">
-        <v>231</v>
-      </c>
-      <c r="R109" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="S109" s="2"/>
-    </row>
-    <row r="110" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="N109" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="O109" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="P109" s="2"/>
+    </row>
+    <row r="110" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A110" s="8" t="s">
-        <v>238</v>
+        <v>127</v>
       </c>
       <c r="B110" s="8">
         <v>0</v>
@@ -7416,26 +6107,17 @@
       <c r="M110" s="8">
         <v>0</v>
       </c>
-      <c r="N110" s="8">
-        <v>2</v>
-      </c>
-      <c r="O110" s="8">
-        <v>0</v>
-      </c>
-      <c r="P110" s="8" t="s">
-        <v>239</v>
-      </c>
-      <c r="Q110" s="8" t="s">
-        <v>231</v>
-      </c>
-      <c r="R110" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="S110" s="2"/>
-    </row>
-    <row r="111" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="N110" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="O110" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="P110" s="2"/>
+    </row>
+    <row r="111" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A111" s="8" t="s">
-        <v>240</v>
+        <v>128</v>
       </c>
       <c r="B111" s="8">
         <v>0</v>
@@ -7473,30 +6155,21 @@
       <c r="M111" s="8">
         <v>0</v>
       </c>
-      <c r="N111" s="8">
-        <v>2</v>
-      </c>
-      <c r="O111" s="8">
-        <v>0</v>
-      </c>
-      <c r="P111" s="8" t="s">
-        <v>241</v>
-      </c>
-      <c r="Q111" s="8" t="s">
-        <v>231</v>
-      </c>
-      <c r="R111" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="S111" s="2"/>
-    </row>
-    <row r="112" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="N111" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="O111" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="P111" s="2"/>
+    </row>
+    <row r="112" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B112" s="2">
         <f>SUM(B2:B111)</f>
         <v>81</v>
       </c>
       <c r="C112" s="2">
-        <f t="shared" ref="C112:O112" si="0">SUM(C2:C111)</f>
+        <f t="shared" ref="C112:M112" si="0">SUM(C2:C111)</f>
         <v>81</v>
       </c>
       <c r="D112" s="2">
@@ -7542,5 +6215,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>